--- a/data/trans_orig/P1417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF697C1B-4F56-447B-A186-A263168817E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A475E28C-4769-4948-9612-5FAACED87882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D40240B0-EADC-44A4-AE44-AEE90DBCB223}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B01E8CC-59D2-426E-BF57-D1F83E490710}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="275">
   <si>
     <t>Población con diagnóstico de anemia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,802 +95,763 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>94,86%</t>
   </si>
   <si>
     <t>96,19%</t>
@@ -899,7 +860,10 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>97,43%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D626F-7EFB-4B36-AEC5-912CA1F0ABDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B87214B-FC9B-4C88-A327-82485550496F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,19 +1480,19 @@
         <v>37797</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>1032</v>
@@ -1537,13 +1501,13 @@
         <v>1025450</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>1261</v>
@@ -1552,13 +1516,13 @@
         <v>1283589</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>2293</v>
@@ -1567,13 +1531,13 @@
         <v>2309039</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,13 +1552,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1603,13 +1567,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1618,18 +1582,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1647,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1662,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1677,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1692,13 +1656,13 @@
         <v>4454</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -1707,13 +1671,13 @@
         <v>20263</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -1722,19 +1686,19 @@
         <v>24717</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1644</v>
@@ -1743,13 +1707,13 @@
         <v>1688958</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1534</v>
@@ -1758,13 +1722,13 @@
         <v>1567410</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>3178</v>
@@ -1773,13 +1737,13 @@
         <v>3256369</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,13 +1758,13 @@
         <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1554</v>
@@ -1809,13 +1773,13 @@
         <v>1587673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3203</v>
@@ -1824,18 +1788,18 @@
         <v>3281086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1853,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1868,7 +1832,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1883,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1862,13 @@
         <v>2754</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1913,13 +1877,13 @@
         <v>5886</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1928,19 +1892,19 @@
         <v>8640</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>525</v>
@@ -1949,13 +1913,13 @@
         <v>548654</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>447</v>
@@ -1964,13 +1928,13 @@
         <v>470526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>972</v>
@@ -1979,13 +1943,13 @@
         <v>1019180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +1964,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2015,13 +1979,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2030,13 +1994,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2074,7 +2038,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2089,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2068,13 @@
         <v>13481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -2119,13 +2083,13 @@
         <v>57673</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2134,19 +2098,19 @@
         <v>71154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3201</v>
@@ -2155,13 +2119,13 @@
         <v>3263063</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>3242</v>
@@ -2170,28 +2134,28 @@
         <v>3321525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>6443</v>
       </c>
       <c r="N18" s="7">
-        <v>6584586</v>
+        <v>6584587</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2170,13 @@
         <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3297</v>
@@ -2221,33 +2185,33 @@
         <v>3379198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D684546F-69C7-480F-A34C-05B1E0AB4B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C78C848-A14E-432A-9E33-34AC46601E3E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2283,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2396,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2426,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2405,13 @@
         <v>6268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -2456,13 +2420,13 @@
         <v>49211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -2474,16 +2438,16 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>902</v>
@@ -2492,13 +2456,13 @@
         <v>968375</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H6" s="7">
         <v>1201</v>
@@ -2507,13 +2471,13 @@
         <v>1288585</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M6" s="7">
         <v>2103</v>
@@ -2522,13 +2486,13 @@
         <v>2256961</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2507,13 @@
         <v>974643</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1247</v>
@@ -2558,13 +2522,13 @@
         <v>1337796</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2155</v>
@@ -2573,18 +2537,18 @@
         <v>2312440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2602,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2617,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2632,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2611,13 @@
         <v>8034</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2662,13 +2626,13 @@
         <v>37115</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -2677,19 +2641,19 @@
         <v>45149</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1848</v>
@@ -2698,13 +2662,13 @@
         <v>1955923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>1598</v>
@@ -2713,13 +2677,13 @@
         <v>1716431</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>3446</v>
@@ -2728,10 +2692,10 @@
         <v>3672354</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>126</v>
@@ -2749,13 +2713,13 @@
         <v>1963957</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1632</v>
@@ -2764,13 +2728,13 @@
         <v>1753546</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3488</v>
@@ -2779,18 +2743,18 @@
         <v>3717503</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2808,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2823,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2838,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2817,13 @@
         <v>1023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2886,16 +2850,16 @@
         <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>437</v>
@@ -2904,13 +2868,13 @@
         <v>480158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -2919,13 +2883,13 @@
         <v>448398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>839</v>
@@ -2934,13 +2898,13 @@
         <v>928556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2919,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>412</v>
@@ -2970,13 +2934,13 @@
         <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -2985,13 +2949,13 @@
         <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3029,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3044,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3023,13 @@
         <v>15324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -3074,13 +3038,13 @@
         <v>96559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3089,19 +3053,19 @@
         <v>111884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3187</v>
@@ -3110,13 +3074,13 @@
         <v>3404458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>3201</v>
@@ -3125,10 +3089,10 @@
         <v>3453414</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>151</v>
@@ -3140,13 +3104,13 @@
         <v>6857871</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3125,13 @@
         <v>3419782</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3291</v>
@@ -3176,13 +3140,13 @@
         <v>3549973</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6493</v>
@@ -3191,18 +3155,18 @@
         <v>6969755</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0495A71-60FB-4F5C-A09B-DA74C59144D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D51E3-21BA-485D-AC8E-61C2446D7650}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3238,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3351,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3366,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3381,7 +3345,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3360,13 @@
         <v>10363</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3411,13 +3375,13 @@
         <v>35748</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3426,19 +3390,19 @@
         <v>46111</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>751</v>
@@ -3447,13 +3411,13 @@
         <v>743984</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="H6" s="7">
         <v>860</v>
@@ -3462,13 +3426,13 @@
         <v>958912</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>1611</v>
@@ -3477,13 +3441,13 @@
         <v>1702896</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3462,13 @@
         <v>754347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>892</v>
@@ -3513,13 +3477,13 @@
         <v>994660</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>1654</v>
@@ -3528,18 +3492,18 @@
         <v>1749007</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3557,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3572,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3587,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3566,13 @@
         <v>7717</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>39</v>
@@ -3617,13 +3581,13 @@
         <v>40428</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -3632,19 +3596,19 @@
         <v>48145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1945</v>
@@ -3653,13 +3617,13 @@
         <v>2068668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>1869</v>
@@ -3668,13 +3632,13 @@
         <v>1947872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>3814</v>
@@ -3683,13 +3647,13 @@
         <v>4016540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3668,13 @@
         <v>2076385</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>1908</v>
@@ -3719,13 +3683,13 @@
         <v>1988300</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>3860</v>
@@ -3734,18 +3698,18 @@
         <v>4064685</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3763,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3778,7 +3742,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3793,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3772,13 @@
         <v>1016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3823,13 +3787,13 @@
         <v>10698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3838,19 +3802,19 @@
         <v>11714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>500</v>
@@ -3859,13 +3823,13 @@
         <v>545870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -3874,13 +3838,13 @@
         <v>538442</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -3889,13 +3853,13 @@
         <v>1084312</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3874,13 @@
         <v>546886</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>526</v>
@@ -3925,13 +3889,13 @@
         <v>549140</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1027</v>
@@ -3940,13 +3904,13 @@
         <v>1096026</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3933,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3984,7 +3948,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3999,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,16 +4011,16 @@
         <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3196</v>
@@ -4065,13 +4029,13 @@
         <v>3358522</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H18" s="7">
         <v>3245</v>
@@ -4080,13 +4044,13 @@
         <v>3445226</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>6441</v>
@@ -4095,13 +4059,13 @@
         <v>6803748</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4080,13 @@
         <v>3377618</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>3326</v>
@@ -4131,13 +4095,13 @@
         <v>3532100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>6541</v>
@@ -4146,18 +4110,18 @@
         <v>6909718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455DEA53-4E15-4052-A878-C85938077B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EDBC8C-E9A2-4F94-98FA-5E06B7CF9011}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4193,7 +4157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4306,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4315,13 +4279,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4330,13 +4294,13 @@
         <v>2762</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4315,13 @@
         <v>20460</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4366,13 +4330,13 @@
         <v>56462</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -4381,19 +4345,19 @@
         <v>76922</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>657</v>
@@ -4402,13 +4366,13 @@
         <v>518873</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H6" s="7">
         <v>1323</v>
@@ -4417,13 +4381,13 @@
         <v>774685</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>1980</v>
@@ -4432,13 +4396,13 @@
         <v>1293557</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4417,13 @@
         <v>539333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1424</v>
@@ -4468,13 +4432,13 @@
         <v>833909</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>2113</v>
@@ -4483,18 +4447,18 @@
         <v>1373242</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4512,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4521,13 +4485,13 @@
         <v>718</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4536,13 +4500,13 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4521,13 @@
         <v>17941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -4572,13 +4536,13 @@
         <v>79547</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7">
         <v>138</v>
@@ -4587,19 +4551,19 @@
         <v>97488</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>1966</v>
@@ -4608,13 +4572,13 @@
         <v>2140996</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>2800</v>
@@ -4623,13 +4587,13 @@
         <v>2166274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>4766</v>
@@ -4638,13 +4602,13 @@
         <v>4307270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4623,13 @@
         <v>2158937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>2916</v>
@@ -4674,13 +4638,13 @@
         <v>2246539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>4905</v>
@@ -4689,18 +4653,18 @@
         <v>4405476</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4718,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4733,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4748,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4727,13 @@
         <v>2025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4778,13 +4742,13 @@
         <v>28241</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4793,19 +4757,19 @@
         <v>30266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>678</v>
@@ -4814,13 +4778,13 @@
         <v>671014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
@@ -4829,13 +4793,13 @@
         <v>685645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -4844,13 +4808,13 @@
         <v>1356660</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4829,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>1004</v>
@@ -4880,13 +4844,13 @@
         <v>713886</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1685</v>
@@ -4895,13 +4859,13 @@
         <v>1386926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,7 +4888,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4933,13 +4897,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4948,13 +4912,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,10 +4936,10 @@
         <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -4984,13 +4948,13 @@
         <v>164251</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -4999,19 +4963,19 @@
         <v>204677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>3301</v>
@@ -5020,13 +4984,13 @@
         <v>3330883</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>5088</v>
@@ -5035,13 +4999,13 @@
         <v>3626603</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="M18" s="7">
         <v>8389</v>
@@ -5050,13 +5014,13 @@
         <v>6957487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5035,13 @@
         <v>3371309</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>5344</v>
@@ -5086,13 +5050,13 @@
         <v>3794334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>8703</v>
@@ -5101,18 +5065,18 @@
         <v>7165644</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A475E28C-4769-4948-9612-5FAACED87882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D910E5C-5A44-40D4-B30E-21C6609F0A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B01E8CC-59D2-426E-BF57-D1F83E490710}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CE510620-38C0-4A71-B2BF-A125BF19DCE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -95,757 +95,757 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>98,43%</t>
   </si>
   <si>
     <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
   </si>
   <si>
     <t>95,58%</t>
@@ -1275,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B87214B-FC9B-4C88-A327-82485550496F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D205449D-D783-41D6-B5DB-3F28232D79B6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1704,7 +1704,7 @@
         <v>1644</v>
       </c>
       <c r="D10" s="7">
-        <v>1688958</v>
+        <v>1688959</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>47</v>
@@ -1755,7 +1755,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>34</v>
@@ -1862,13 +1862,13 @@
         <v>2754</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1913,10 +1913,10 @@
         <v>548654</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>68</v>
@@ -2089,7 +2089,7 @@
         <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2098,13 +2098,13 @@
         <v>71154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2116,16 +2116,16 @@
         <v>3201</v>
       </c>
       <c r="D18" s="7">
-        <v>3263063</v>
+        <v>3263062</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>3242</v>
@@ -2134,10 +2134,10 @@
         <v>3321525</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>88</v>
@@ -2152,10 +2152,10 @@
         <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2167,7 +2167,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>34</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C78C848-A14E-432A-9E33-34AC46601E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDFAD7A-6DD0-44B6-B547-2683B117BF0A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2247,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2360,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2405,13 @@
         <v>6268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -2420,13 +2420,13 @@
         <v>49211</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -2438,10 +2438,10 @@
         <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2456,13 @@
         <v>968375</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H6" s="7">
         <v>1201</v>
@@ -2471,13 +2471,13 @@
         <v>1288585</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M6" s="7">
         <v>2103</v>
@@ -2489,10 +2489,10 @@
         <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,7 +2617,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2626,13 +2626,13 @@
         <v>37115</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -2641,13 +2641,13 @@
         <v>45149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,13 +2662,13 @@
         <v>1955923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>1598</v>
@@ -2677,13 +2677,13 @@
         <v>1716431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>3446</v>
@@ -2692,13 +2692,13 @@
         <v>3672354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2817,13 @@
         <v>1023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2832,13 +2832,13 @@
         <v>10233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2847,13 +2847,13 @@
         <v>11256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,10 +2868,10 @@
         <v>480158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>68</v>
@@ -2883,13 +2883,13 @@
         <v>448398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7">
         <v>839</v>
@@ -2898,13 +2898,13 @@
         <v>928556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3023,13 @@
         <v>15324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -3038,13 +3038,13 @@
         <v>96559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3056,10 +3056,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3074,13 @@
         <v>3404458</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>3201</v>
@@ -3089,13 +3089,13 @@
         <v>3453414</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M18" s="7">
         <v>6388</v>
@@ -3107,10 +3107,10 @@
         <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,7 +3166,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5D51E3-21BA-485D-AC8E-61C2446D7650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31892306-F44A-429E-BFA3-4A199F553420}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3202,7 +3202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3315,7 +3315,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>10363</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3375,13 +3375,13 @@
         <v>35748</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3390,13 +3390,13 @@
         <v>46111</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3411,13 @@
         <v>743984</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H6" s="7">
         <v>860</v>
@@ -3426,13 +3426,13 @@
         <v>958912</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M6" s="7">
         <v>1611</v>
@@ -3441,13 +3441,13 @@
         <v>1702896</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3566,13 @@
         <v>7717</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="H9" s="7">
         <v>39</v>
@@ -3581,13 +3581,13 @@
         <v>40428</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>46</v>
@@ -3596,13 +3596,13 @@
         <v>48145</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3617,13 @@
         <v>2068668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>1869</v>
@@ -3632,13 +3632,13 @@
         <v>1947872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>3814</v>
@@ -3647,13 +3647,13 @@
         <v>4016540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3772,13 @@
         <v>1016</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3787,13 +3787,13 @@
         <v>10698</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3802,13 +3802,13 @@
         <v>11714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,10 +3823,10 @@
         <v>545870</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>68</v>
@@ -3838,13 +3838,13 @@
         <v>538442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>1016</v>
@@ -3856,10 +3856,10 @@
         <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>19096</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -3993,13 +3993,13 @@
         <v>86874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -4008,13 +4008,13 @@
         <v>105970</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4029,13 @@
         <v>3358522</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>3245</v>
@@ -4044,13 +4044,13 @@
         <v>3445226</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="M18" s="7">
         <v>6441</v>
@@ -4059,13 +4059,13 @@
         <v>6803748</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4140,7 +4140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EDBC8C-E9A2-4F94-98FA-5E06B7CF9011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0D76C9-1154-43CA-AF7A-0657996F208B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4157,7 +4157,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4270,7 +4270,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4279,13 +4279,13 @@
         <v>2762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4300,7 +4300,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4315,13 @@
         <v>20460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -4330,13 +4330,13 @@
         <v>56462</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>132</v>
@@ -4345,13 +4345,13 @@
         <v>76922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>518873</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7">
         <v>1323</v>
@@ -4381,13 +4381,13 @@
         <v>774685</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>1980</v>
@@ -4396,13 +4396,13 @@
         <v>1293557</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4491,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>718</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -4521,13 +4521,13 @@
         <v>17941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7">
         <v>115</v>
@@ -4536,13 +4536,13 @@
         <v>79547</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>138</v>
@@ -4551,13 +4551,13 @@
         <v>97488</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4572,13 @@
         <v>2140996</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
         <v>2800</v>
@@ -4587,13 +4587,13 @@
         <v>2166274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>4766</v>
@@ -4602,13 +4602,13 @@
         <v>4307270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,10 +4727,10 @@
         <v>2025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>44</v>
@@ -4742,13 +4742,13 @@
         <v>28241</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -4757,13 +4757,13 @@
         <v>30266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4778,13 @@
         <v>671014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
@@ -4793,13 +4793,13 @@
         <v>685645</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
         <v>1643</v>
@@ -4808,13 +4808,13 @@
         <v>1356660</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4897,13 @@
         <v>3480</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -4912,13 +4912,13 @@
         <v>3480</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4933,13 @@
         <v>40426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>254</v>
@@ -4948,13 +4948,13 @@
         <v>164251</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -4963,13 +4963,13 @@
         <v>204677</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4984,13 @@
         <v>3330883</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>5088</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F04CB2A8-5276-4B47-8D63-F4F3ED649983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE84CD87-0AFD-4448-9E23-D2DD6E4FFF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39EC2D01-849A-4D0F-8EFC-D7EA44127115}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FEFD5D64-F06D-4644-8209-10B96D7439B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -656,178 +656,178 @@
     <t>Población con diagnóstico de anemia en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>3,98%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,91%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53ED7E-AC9E-4144-B8AD-E6751BA7F031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168C02A7-738F-4044-9779-9840C825C62F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1441,7 +1441,7 @@
         <v>2293</v>
       </c>
       <c r="N5" s="7">
-        <v>2309039</v>
+        <v>2309038</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1492,7 +1492,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1566,7 +1566,7 @@
         <v>1644</v>
       </c>
       <c r="D8" s="7">
-        <v>1688958</v>
+        <v>1688959</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1617,7 +1617,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1876,7 +1876,7 @@
         <v>3201</v>
       </c>
       <c r="D14" s="7">
-        <v>3263063</v>
+        <v>3263062</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1891,7 +1891,7 @@
         <v>3242</v>
       </c>
       <c r="I14" s="7">
-        <v>3321525</v>
+        <v>3321524</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1906,7 +1906,7 @@
         <v>6443</v>
       </c>
       <c r="N14" s="7">
-        <v>6584586</v>
+        <v>6584587</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1927,7 +1927,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1942,7 +1942,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1957,7 +1957,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1990,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B6E017-FA87-4978-A6D9-024567FF3278}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABD8388-8134-467B-9B9F-A7AF7A9F4B7A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2177,7 +2177,7 @@
         <v>1201</v>
       </c>
       <c r="I5" s="7">
-        <v>1288585</v>
+        <v>1288586</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>96</v>
@@ -2228,7 +2228,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2332,7 +2332,7 @@
         <v>1598</v>
       </c>
       <c r="I8" s="7">
-        <v>1716431</v>
+        <v>1716430</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>110</v>
@@ -2383,7 +2383,7 @@
         <v>1632</v>
       </c>
       <c r="I9" s="7">
-        <v>1753546</v>
+        <v>1753545</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2502,7 +2502,7 @@
         <v>839</v>
       </c>
       <c r="N11" s="7">
-        <v>928556</v>
+        <v>928557</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>125</v>
@@ -2553,7 +2553,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2741,7 +2741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FAD038-10F0-4B69-A1D7-4C6FA4A07E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F2B406-3603-47ED-8B99-B0CA2378159B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,7 +3253,7 @@
         <v>1016</v>
       </c>
       <c r="N11" s="7">
-        <v>1084312</v>
+        <v>1084313</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>84</v>
@@ -3304,7 +3304,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3492,7 +3492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52AB4DD-221A-4BB9-8728-0E4974D51F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5F97A0-6227-4B2D-B343-D197D9AA9A8E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3613,46 +3613,46 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>20460</v>
+        <v>19543</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
       </c>
       <c r="I4" s="7">
-        <v>56462</v>
+        <v>50532</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>132</v>
       </c>
       <c r="N4" s="7">
-        <v>76922</v>
+        <v>70075</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,46 +3664,46 @@
         <v>657</v>
       </c>
       <c r="D5" s="7">
-        <v>518873</v>
+        <v>493305</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7">
         <v>1323</v>
       </c>
       <c r="I5" s="7">
-        <v>774685</v>
+        <v>700771</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>1980</v>
       </c>
       <c r="N5" s="7">
-        <v>1293558</v>
+        <v>1194076</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,7 +3715,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539333</v>
+        <v>512848</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3730,7 +3730,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831147</v>
+        <v>751303</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3745,7 +3745,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1370480</v>
+        <v>1264151</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3768,46 +3768,46 @@
         <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>17941</v>
+        <v>17158</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
       </c>
       <c r="I7" s="7">
-        <v>79547</v>
+        <v>76231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>97488</v>
+        <v>93389</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,43 +3819,43 @@
         <v>1966</v>
       </c>
       <c r="D8" s="7">
-        <v>2140996</v>
+        <v>2270252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>2800</v>
       </c>
       <c r="I8" s="7">
-        <v>2166275</v>
+        <v>2158217</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M8" s="7">
         <v>4766</v>
       </c>
       <c r="N8" s="7">
-        <v>4307270</v>
+        <v>4428469</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>232</v>
@@ -3870,7 +3870,7 @@
         <v>1989</v>
       </c>
       <c r="D9" s="7">
-        <v>2158937</v>
+        <v>2287410</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3885,7 +3885,7 @@
         <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>2245822</v>
+        <v>2234448</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3900,7 +3900,7 @@
         <v>4904</v>
       </c>
       <c r="N9" s="7">
-        <v>4404758</v>
+        <v>4521858</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3923,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2025</v>
+        <v>1901</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -3932,37 +3932,37 @@
         <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>28241</v>
+        <v>26311</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>30266</v>
+        <v>28212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3974,13 @@
         <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>671014</v>
+        <v>644722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>242</v>
@@ -3989,31 +3989,31 @@
         <v>965</v>
       </c>
       <c r="I11" s="7">
-        <v>685645</v>
+        <v>634152</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>1643</v>
       </c>
       <c r="N11" s="7">
-        <v>1356660</v>
+        <v>1278874</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +4025,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4040,7 +4040,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4055,7 +4055,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4078,46 +4078,46 @@
         <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>40426</v>
+        <v>38602</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>254</v>
       </c>
       <c r="I13" s="7">
-        <v>164251</v>
+        <v>153074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
       </c>
       <c r="N13" s="7">
-        <v>204677</v>
+        <v>191676</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,22 +4129,22 @@
         <v>3301</v>
       </c>
       <c r="D14" s="7">
-        <v>3330883</v>
+        <v>3408279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>5088</v>
       </c>
       <c r="I14" s="7">
-        <v>3626604</v>
+        <v>3493140</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>257</v>
@@ -4159,7 +4159,7 @@
         <v>8389</v>
       </c>
       <c r="N14" s="7">
-        <v>6957487</v>
+        <v>6901419</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>260</v>
@@ -4180,7 +4180,7 @@
         <v>3359</v>
       </c>
       <c r="D15" s="7">
-        <v>3371309</v>
+        <v>3446881</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4195,7 +4195,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3790855</v>
+        <v>3646214</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4210,7 +4210,7 @@
         <v>8701</v>
       </c>
       <c r="N15" s="7">
-        <v>7162164</v>
+        <v>7093095</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
